--- a/save/c5/template.xlsx
+++ b/save/c5/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7cf3a2fcbf616214/文档/Work/c5seat/save/c5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7cf3a2fcbf616214/文档/Work/seat/save/c5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_CD8D51E0C35D68DFEB2D10375D66AEFDCF1E69F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69459C9C-E845-B249-8ED7-3CFC6BB89507}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_CD8D51E0C35D68DFEB2D10375D66AEFDCF1E69F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC8A01B-6ABA-ED4E-B0C4-E21853564845}"/>
   <bookViews>
     <workbookView xWindow="3460" yWindow="2280" windowWidth="22360" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>ICC S1C5 座位表</t>
-  </si>
   <si>
     <t>白板</t>
   </si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>% DAY MONTH, YEAR</t>
+  </si>
+  <si>
+    <t>ICC S2C5 座位表</t>
   </si>
 </sst>
 </file>
@@ -816,7 +816,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -828,7 +828,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="36.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -840,7 +840,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
       <c r="K1" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L1" s="24"/>
       <c r="M1" s="26"/>
@@ -851,7 +851,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -861,7 +861,7 @@
       <c r="J2" s="31"/>
       <c r="K2" s="5"/>
       <c r="L2" s="39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="7"/>
@@ -870,7 +870,7 @@
       <c r="A3" s="8"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="12"/>
@@ -885,24 +885,24 @@
     </row>
     <row r="4" spans="1:14" ht="29" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="21"/>
       <c r="G4" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
       <c r="J4" s="36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="32"/>
@@ -922,7 +922,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="29" customHeight="1" thickTop="1">
